--- a/results/FrequencyTables/25808449_T8.xlsx
+++ b/results/FrequencyTables/25808449_T8.xlsx
@@ -465,49 +465,49 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.00107958050586058</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.000308451573103023</v>
       </c>
       <c r="D2">
-        <v>0.989690721649485</v>
+        <v>0.954503392967304</v>
       </c>
       <c r="E2">
-        <v>0.0103092783505155</v>
+        <v>0.00694016039481801</v>
       </c>
       <c r="F2">
-        <v>0.0103092783505155</v>
+        <v>0.00663170882171499</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.991980259099321</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.000925354719309068</v>
       </c>
       <c r="I2">
-        <v>0.0103092783505155</v>
+        <v>0.0067859346082665</v>
       </c>
       <c r="J2">
-        <v>0.0206185567010309</v>
+        <v>0.0183528685996299</v>
       </c>
       <c r="K2">
-        <v>0.0103092783505155</v>
+        <v>0.0067859346082665</v>
       </c>
       <c r="L2">
-        <v>0.989690721649485</v>
+        <v>0.991980259099321</v>
       </c>
       <c r="M2">
-        <v>0.0103092783505155</v>
+        <v>0.0067859346082665</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.00740283775447255</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.976711906230722</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -516,22 +516,22 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.00308451573103023</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.999074645280691</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.000308451573103023</v>
       </c>
       <c r="V2">
-        <v>0.0103092783505155</v>
+        <v>0.000154225786551511</v>
       </c>
       <c r="W2">
-        <v>0.0103092783505155</v>
+        <v>0.000462677359654534</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.000771128932757557</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,58 +539,58 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.000308451573103023</v>
       </c>
       <c r="C3">
-        <v>0.0103092783505155</v>
+        <v>0.00740283775447255</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.00123380629241209</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.000154225786551511</v>
       </c>
       <c r="F3">
-        <v>0.989690721649485</v>
+        <v>0.992751388032079</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.00185070943861814</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00169648365206663</v>
       </c>
       <c r="J3">
-        <v>0.0103092783505155</v>
+        <v>0.0721776681061073</v>
       </c>
       <c r="K3">
-        <v>0.989690721649485</v>
+        <v>0.993059839605182</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.00462677359654534</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.00154225786551511</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.00154225786551511</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0.998920419494139</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0.970234423195558</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -599,10 +599,10 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0103092783505155</v>
+        <v>0.0106415792720543</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.000154225786551511</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -613,52 +613,52 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.998457742134485</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0103092783505155</v>
+        <v>0.0157310302282542</v>
       </c>
       <c r="E4">
-        <v>0.989690721649485</v>
+        <v>0.992751388032079</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.000154225786551511</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0040098704503393</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0.998920419494139</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0103092783505155</v>
+        <v>0.0280690931523751</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.000154225786551511</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.000925354719309068</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.9898210980876</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.0121838371375694</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0.998920419494139</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.000771128932757557</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0.999691548426897</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.000154225786551511</v>
       </c>
       <c r="W4">
-        <v>0.979381443298969</v>
+        <v>0.992288710672424</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.998920419494139</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -690,55 +690,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.989690721649485</v>
+        <v>0.992134484885873</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.0222085132634176</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.000462677359654534</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.000925354719309068</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.000154225786551511</v>
       </c>
       <c r="I5">
-        <v>0.989690721649485</v>
+        <v>0.991054904380012</v>
       </c>
       <c r="J5">
-        <v>0.958762886597938</v>
+        <v>0.865515114127082</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0103092783505155</v>
+        <v>0.00663170882171499</v>
       </c>
       <c r="M5">
-        <v>0.989690721649485</v>
+        <v>0.986890808143122</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.000154225786551511</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.998457742134485</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.0067859346082665</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.000925354719309068</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.000925354719309068</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.0228254164096237</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -747,13 +747,13 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.979381443298969</v>
+        <v>0.986582356570018</v>
       </c>
       <c r="W5">
-        <v>0.0103092783505155</v>
+        <v>0.0067859346082665</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.000154225786551511</v>
       </c>
     </row>
   </sheetData>
